--- a/biology/Médecine/1486_en_santé_et_médecine/1486_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1486_en_santé_et_médecine/1486_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1486_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1486_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1486 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1486_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1486_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 novembre : à Paris, Jacques de Bruges et Guillaume Miret, docteurs en médecine, et Philippe Rogue, chirurgien juré, ayant constaté que la fumée des poteries « est préjudiciable à la santé des corps humains », le Châtelet ordonne le déplacement d'une des fabriques[1].
-Fondation de l'hôpital des Rois-Catholiques, à Compostelle, par Isabelle de Castille et Ferdinand d'Aragon[2].
-Création à Sienne, en Toscane, d'un office permanent de santé publique[3].
-Une aumône est attestée à Lucy-le-Bois, près d'Avallon, en Bourgogne[4].
-1485-1486 : Venise institue un Magistrato alla Sanità (it) permanent, formé de trois provéditeurs chargés de veiller sur la santé publique, c'est-à-dire surtout de protéger le territoire des épidémies venues de l'extérieur[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 novembre : à Paris, Jacques de Bruges et Guillaume Miret, docteurs en médecine, et Philippe Rogue, chirurgien juré, ayant constaté que la fumée des poteries « est préjudiciable à la santé des corps humains », le Châtelet ordonne le déplacement d'une des fabriques.
+Fondation de l'hôpital des Rois-Catholiques, à Compostelle, par Isabelle de Castille et Ferdinand d'Aragon.
+Création à Sienne, en Toscane, d'un office permanent de santé publique.
+Une aumône est attestée à Lucy-le-Bois, près d'Avallon, en Bourgogne.
+1485-1486 : Venise institue un Magistrato alla Sanità (it) permanent, formé de trois provéditeurs chargés de veiller sur la santé publique, c'est-à-dire surtout de protéger le territoire des épidémies venues de l'extérieur,.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1486_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1486_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, imprimée à Brescia en Italie, du Kitāb al-hāwī de Rhazès (865-925), sous le titre de Liber dictus Elhawi sive Continentis in medicina[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, imprimée à Brescia en Italie, du Kitāb al-hāwī de Rhazès (865-925), sous le titre de Liber dictus Elhawi sive Continentis in medicina.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1486_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1486_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14 septembre : Corneille Agrippa (mort en 1535), humaniste allemand, médecin, philosophe, alchimiste, ésotériste, médecin de Louise de Savoie, historiographe de Charles Quint[8].
-Melchior Fendt (de) (mort en 1564), médecin bavarois, professeur de médecine et de philosophie à Wittemberg, fondateur de l'hôpital des étudiants de cette ville et auteur, entre autres ouvrages, d'un De formatione foetus[9].
-Adam Bogaert (mort en 1550), professeur de médecine à Louvain, entré dans l'ordre de Saint-François, auteur d'un ouvrage sur le traitement de la goutte[10].
-1486 ou 1490 : Francysk Skaryna (mort en 1540 ou 1551), traducteur, imprimeur, botaniste et médecin biélorusse, reçu docteur à Padoue, médecin de l'évêque de Vilnius et, selon certains, de l'empereur Ferdinand Ier[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14 septembre : Corneille Agrippa (mort en 1535), humaniste allemand, médecin, philosophe, alchimiste, ésotériste, médecin de Louise de Savoie, historiographe de Charles Quint.
+Melchior Fendt (de) (mort en 1564), médecin bavarois, professeur de médecine et de philosophie à Wittemberg, fondateur de l'hôpital des étudiants de cette ville et auteur, entre autres ouvrages, d'un De formatione foetus.
+Adam Bogaert (mort en 1550), professeur de médecine à Louvain, entré dans l'ordre de Saint-François, auteur d'un ouvrage sur le traitement de la goutte.
+1486 ou 1490 : Francysk Skaryna (mort en 1540 ou 1551), traducteur, imprimeur, botaniste et médecin biélorusse, reçu docteur à Padoue, médecin de l'évêque de Vilnius et, selon certains, de l'empereur Ferdinand Ier.</t>
         </is>
       </c>
     </row>
